--- a/Sprint MetricTime.xlsx
+++ b/Sprint MetricTime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmore\OneDrive\Desktop\Proyecto IS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\2022-1\INGENIERIA DE SOFTWARE\proyecto-is\MetricTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6334290A-494E-41C6-A18D-20E90FD9768E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F9478A-6016-401D-B281-6F97241716D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Sprint</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Hecho</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Instalaciones previas de software previas para el desarrollo (configuración Workstation Front y Back).</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>….</t>
   </si>
 </sst>
 </file>
@@ -236,6 +230,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -269,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,12 +307,6 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -398,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,18 +397,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -432,14 +415,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,20 +651,20 @@
   <dimension ref="B3:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="84" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -703,515 +689,515 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F4" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F5" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F7" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="6">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F4" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G4" s="7" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F13" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F14" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F15" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F16" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F17" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F5" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F6" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="I19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="I20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44778</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44792</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F8" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F9" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F10" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F11" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F12" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F13" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F14" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F15" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F16" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F17" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F18" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F19" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F20" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="8">
-        <v>44778</v>
-      </c>
-      <c r="F21" s="8">
-        <v>44792</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D38" s="16"/>
+    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="14"/>
       <c r="J38" s="1"/>
     </row>
   </sheetData>
